--- a/trained_models_old_clean/MLP/wine/results_table.xlsx
+++ b/trained_models_old_clean/MLP/wine/results_table.xlsx
@@ -504,11 +504,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.946612751169439, 'beta_2': 0.6475340962509533, 'epsilon': 0.6639261533272113, 'learning_rate': 'invscaling', 'momentum': 0.5595705341197842, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6004710432403803}</t>
+          <t>{'beta_1': 0.6114836269996989, 'beta_2': 0.6163170628778821, 'epsilon': 0.9428043304361096, 'learning_rate': 'invscaling', 'momentum': 0.4499499899112276, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9023485831739843}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9814814814814815</v>
       </c>
     </row>
     <row r="3">
@@ -540,11 +540,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6975502293404723, 'beta_2': 0.33516267150622375, 'epsilon': 0.14753789262850064, 'learning_rate': 'invscaling', 'momentum': 0.24190170420148482, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5219962736299825}</t>
+          <t>{'beta_1': 0.6292719678840203, 'beta_2': 0.7743630713990834, 'epsilon': 0.4046364487929541, 'learning_rate': 'invscaling', 'momentum': 0.0015945706042945762, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.7791109940193555}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.9814814814814815</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="4">
@@ -576,11 +576,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.06297525137970737, 'beta_2': 0.555093593527375, 'epsilon': 0.009230833413054227, 'learning_rate': 'invscaling', 'momentum': 0.7851529120231378, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5864101661863267}</t>
+          <t>{'beta_1': 0.12789284958036584, 'beta_2': 0.5826096381595377, 'epsilon': 0.002062570938847292, 'learning_rate': 'invscaling', 'momentum': 0.4124335494348642, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8937727558492876}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="5">
@@ -612,11 +612,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.2013161956098951, 'beta_2': 0.5479705771835305, 'epsilon': 0.5191231866200975, 'learning_rate': 'adaptive', 'momentum': 0.0246199570564557, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9944007896476794}</t>
+          <t>{'beta_1': 0.28323532773558446, 'beta_2': 0.3795470289442204, 'epsilon': 0.18096981077516613, 'learning_rate': 'constant', 'momentum': 0.08637698037064123, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7774075618487531}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.8518518518518519</v>
       </c>
     </row>
     <row r="6">
@@ -648,11 +648,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.325001127020431, 'beta_2': 0.7754352969615961, 'epsilon': 0.9122374227403983, 'learning_rate': 'adaptive', 'momentum': 0.5607358225071297, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6799622373862481}</t>
+          <t>{'beta_1': 0.45136986098708987, 'beta_2': 0.07079890840602415, 'epsilon': 0.29250123740907835, 'learning_rate': 'adaptive', 'momentum': 0.4475158707610247, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.37832614484517124}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="7">
@@ -684,11 +684,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.49187317517272433, 'beta_2': 0.5161988937122239, 'epsilon': 0.11464785408912949, 'learning_rate': 'constant', 'momentum': 0.11293144772785457, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.1641548253660814}</t>
+          <t>{'beta_1': 0.34451173003612534, 'beta_2': 0.10100638307292784, 'epsilon': 0.31806055772951036, 'learning_rate': 'invscaling', 'momentum': 0.8112588995548236, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9016504359672537}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.9814814814814815</v>
+        <v>0.9259259259259259</v>
       </c>
     </row>
     <row r="8">
@@ -720,11 +720,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.039183077977318834, 'beta_2': 0.42971547473554383, 'epsilon': 0.43082207145567586, 'learning_rate': 'invscaling', 'momentum': 0.5023932939071011, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6455442945794939}</t>
+          <t>{'beta_1': 0.4214226733019249, 'beta_2': 0.38793128395292603, 'epsilon': 0.1602331427702575, 'learning_rate': 'invscaling', 'momentum': 0.8956912912102034, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8783724953799941}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.9814814814814815</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="9">
@@ -756,11 +756,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4151926526743223, 'beta_2': 0.9356804910819219, 'epsilon': 0.7214618398138984, 'learning_rate': 'constant', 'momentum': 0.3719187485124613, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.24768502249231594}</t>
+          <t>{'beta_1': 0.833663933541544, 'beta_2': 0.1872573088827188, 'epsilon': 0.004763609386505701, 'learning_rate': 'constant', 'momentum': 0.34010682940846015, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6864476241430553}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="10">
@@ -792,11 +792,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.13533859015822777, 'beta_2': 0.29798404363007475, 'epsilon': 0.5693949457905636, 'learning_rate': 'invscaling', 'momentum': 0.5518162591332588, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9689617652602737}</t>
+          <t>{'beta_1': 0.35532987330372157, 'beta_2': 0.8199044149280549, 'epsilon': 0.5030941477966999, 'learning_rate': 'adaptive', 'momentum': 0.4892254993109375, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.45311076628522495}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.7407407407407407</v>
       </c>
     </row>
     <row r="11">
@@ -828,11 +828,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6975502293404723, 'beta_2': 0.33516267150622375, 'epsilon': 0.14753789262850064, 'learning_rate': 'invscaling', 'momentum': 0.24190170420148482, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5219962736299825}</t>
+          <t>{'beta_1': 0.4576806884327828, 'beta_2': 0.5903931811583613, 'epsilon': 0.856864921549361, 'learning_rate': 'adaptive', 'momentum': 0.09746868872548986, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.820767120701315}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.9074074074074074</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="12">
@@ -864,11 +864,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8398002672922774, 'beta_2': 0.059698160042433585, 'epsilon': 0.3499209361375093, 'learning_rate': 'constant', 'momentum': 0.13442806125258255, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.37966146833187575}</t>
+          <t>{'beta_1': 0.11644205381716893, 'beta_2': 0.3572813958133706, 'epsilon': 0.004650182000346301, 'learning_rate': 'invscaling', 'momentum': 0.3881690830118073, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.3564398889443938}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="13">
@@ -900,11 +900,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.16388054667706958, 'beta_2': 0.46110686039660415, 'epsilon': 0.05164037856454271, 'learning_rate': 'adaptive', 'momentum': 0.05720755875071437, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6741662803737272}</t>
+          <t>{'beta_1': 0.18678021333564818, 'beta_2': 0.6738733596115727, 'epsilon': 0.2767890965633854, 'learning_rate': 'constant', 'momentum': 0.04866731114905576, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8906310472988932}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.9814814814814815</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="14">
@@ -936,11 +936,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4151926526743223, 'beta_2': 0.9356804910819219, 'epsilon': 0.7214618398138984, 'learning_rate': 'constant', 'momentum': 0.3719187485124613, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.24768502249231594}</t>
+          <t>{'beta_1': 0.7664679150490079, 'beta_2': 0.5063319108071276, 'epsilon': 0.040909995295756355, 'learning_rate': 'invscaling', 'momentum': 0.8479418781127848, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.7419067223185293}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="15">
@@ -972,11 +972,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.432854773920062, 'beta_2': 0.7553505871711759, 'epsilon': 0.3957021771479389, 'learning_rate': 'adaptive', 'momentum': 0.5722519057908734, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6800555694634123}</t>
+          <t>{'beta_1': 0.25121232420123485, 'beta_2': 0.9313630133329627, 'epsilon': 0.9920083131636438, 'learning_rate': 'invscaling', 'momentum': 0.5129053230612274, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.34769798866549106}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.9814814814814815</v>
+        <v>0.9074074074074074</v>
       </c>
     </row>
     <row r="16">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.3589121456430256, 'beta_2': 0.3990994114057741, 'epsilon': 0.30152904505158906, 'learning_rate': 'constant', 'momentum': 0.23223414217094274, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9528706723868426}</t>
+          <t>{'beta_1': 0.013934447537481931, 'beta_2': 0.532932216069178, 'epsilon': 0.3042774486452318, 'learning_rate': 'constant', 'momentum': 0.07952208258675575, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6720478073539145}</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1044,11 +1044,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.11644205381716893, 'beta_2': 0.3572813958133706, 'epsilon': 0.004650182000346301, 'learning_rate': 'invscaling', 'momentum': 0.3881690830118073, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.3564398889443938}</t>
+          <t>{'beta_1': 0.4151926526743223, 'beta_2': 0.9356804910819219, 'epsilon': 0.7214618398138984, 'learning_rate': 'constant', 'momentum': 0.3719187485124613, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.24768502249231594}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="18">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5692643787206225, 'beta_2': 0.1512342651827317, 'epsilon': 0.6267137312543768, 'learning_rate': 'invscaling', 'momentum': 0.9454189501211565, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9085383186873831}</t>
+          <t>{'beta_1': 0.08498174250517425, 'beta_2': 0.2329405774274087, 'epsilon': 0.08129034701900123, 'learning_rate': 'adaptive', 'momentum': 0.3676261733862233, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6780594102120125}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9259259259259259</v>
       </c>
     </row>
     <row r="19">
@@ -1116,11 +1116,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.2666788560326197, 'beta_2': 0.8961604243905432, 'epsilon': 0.5640625827825456, 'learning_rate': 'constant', 'momentum': 0.9829901099578396, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3305963007592103}</t>
+          <t>{'beta_1': 0.2013161956098951, 'beta_2': 0.5479705771835305, 'epsilon': 0.5191231866200975, 'learning_rate': 'adaptive', 'momentum': 0.0246199570564557, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9944007896476794}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9814814814814815</v>
       </c>
     </row>
     <row r="20">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.833663933541544, 'beta_2': 0.1872573088827188, 'epsilon': 0.004763609386505701, 'learning_rate': 'constant', 'momentum': 0.34010682940846015, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6864476241430553}</t>
+          <t>{'beta_1': 0.8262029973985192, 'beta_2': 0.17031668652341375, 'epsilon': 0.7005474479755266, 'learning_rate': 'invscaling', 'momentum': 0.1979076029143242, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.05690645260383198}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9814814814814815</v>
       </c>
     </row>
     <row r="21">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.46441352147704323, 'beta_2': 0.9614455825915734, 'epsilon': 0.8131609475908695, 'learning_rate': 'constant', 'momentum': 0.5611209274297748, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2780502383012221}</t>
+          <t>{'beta_1': 0.06297525137970737, 'beta_2': 0.555093593527375, 'epsilon': 0.009230833413054227, 'learning_rate': 'invscaling', 'momentum': 0.7851529120231378, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5864101661863267}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
   </sheetData>
